--- a/biology/Botanique/Erythrina_americana/Erythrina_americana.xlsx
+++ b/biology/Botanique/Erythrina_americana/Erythrina_americana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrina americana est une espèce d'arbres de la famille des Fabaceae. Dénommée couramment arbre de corail, colorines ou colorín (couleur « criarde » ou « bruyante » (Williams, 1959), pemoches ou Tzompāmitl et  cuchillitos (petits couteaux) ou machetitos (petites machettes)[réf. nécessaire].
-La plante produit de belles fleurs, de couleur rouge et chaque fleur individuelle ressemble à une petite machette. Ces fleurs sont comestibles[1].
+La plante produit de belles fleurs, de couleur rouge et chaque fleur individuelle ressemble à une petite machette. Ces fleurs sont comestibles.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">E. americana est un arbre qui atteint 4-5 m. Il a une écorce pâle, brune et lisse et une couronne étalée et abondamment ramifiée. Il perd ses feuilles pendant l’hiver et la saison sèche. Il a des épines et des aiguillons sur les branches et des épines coniques et plates sur le tronc. Les feuilles sont disposées alternativement et sont trifoliées avec des folioles rhombic-ovales de 7 à 22 cm de long et de large[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">E. americana est un arbre qui atteint 4-5 m. Il a une écorce pâle, brune et lisse et une couronne étalée et abondamment ramifiée. Il perd ses feuilles pendant l’hiver et la saison sèche. Il a des épines et des aiguillons sur les branches et des épines coniques et plates sur le tronc. Les feuilles sont disposées alternativement et sont trifoliées avec des folioles rhombic-ovales de 7 à 22 cm de long et de large.
 Cette espèce fleurit pendant la saison sèche (avril) dans de nombreuses régions, et la plante est très populaire auprès des colibris en raison de sa couleur rouge vif, la plante varie de quelques pieds du sol à des arbres de cinq mètres de haut.
 </t>
         </is>
@@ -544,11 +558,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plus ancienne représentation de cet arbre en Amérique se trouve dans le Codex florentin. Au XVIIe siècle, Francisco Hernández commentait : « Le jus des fleurs de cet arbre, donné aux enfants, provoque la somnolence et l’insomnie »[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus ancienne représentation de cet arbre en Amérique se trouve dans le Codex florentin. Au XVIIe siècle, Francisco Hernández commentait : « Le jus des fleurs de cet arbre, donné aux enfants, provoque la somnolence et l’insomnie ».
 La partie rouge des feuilles est bouillie et cuite avec des œufs brouillés dans le Sud du Mexique.
-D’autres sites expliquent que bien que la fleur soit comestible[4], les graines et tout le reste de l’arbre sont hautement toxiques. Au Mexique, les graines broyées sont utilisées comme mort-aux-rats et l’écorce est utilisée comme poison pour les poissons[5].
+D’autres sites expliquent que bien que la fleur soit comestible, les graines et tout le reste de l’arbre sont hautement toxiques. Au Mexique, les graines broyées sont utilisées comme mort-aux-rats et l’écorce est utilisée comme poison pour les poissons.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est originaire du Belize, du Guatemala et du Mexique[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est originaire du Belize, du Guatemala et du Mexique.
 </t>
         </is>
       </c>
@@ -608,10 +626,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Erythrina americana Mill.[7].
-Erythrina americana a pour synonymes[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Erythrina americana Mill..
+Erythrina americana a pour synonymes :
 Corallodendron americanum (Mill.) Kuntze
 Corallodendron coralloides (Moc. &amp; Sessé ex DC.) Kuntze
 Corallodendron roseum (A.Dietr.) Kuntze
